--- a/02_data/rawdata/Dataextraction&Rob_Carolina_04.10.2023_JMG_05.10.2023_20.05.2024.xlsx
+++ b/02_data/rawdata/Dataextraction&Rob_Carolina_04.10.2023_JMG_05.10.2023_20.05.2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\PhD\UmbrellaMA\02_data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FAEB0A-9508-40FD-B054-AD540FFF1AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFCB06-9BC2-4775-B5C3-E924AAB562FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,9 +426,6 @@
     <t>Baseline differences between groups?</t>
   </si>
   <si>
-    <t>Stone 2014</t>
-  </si>
-  <si>
     <t>Emsley(2019)</t>
   </si>
   <si>
@@ -1514,9 +1511,6 @@
     <t>B.G.Schimmelmann</t>
   </si>
   <si>
-    <t>Shimmelmann 2012</t>
-  </si>
-  <si>
     <t>B G Schimmelmann, P Conus, S Cotton, S Kupferschmid, P D McGorry, M Lambert</t>
   </si>
   <si>
@@ -1740,6 +1734,12 @@
   </si>
   <si>
     <t>mean age continued use group</t>
+  </si>
+  <si>
+    <t>Shimmelmann (2012)</t>
+  </si>
+  <si>
+    <t>Stone( 2014)</t>
   </si>
 </sst>
 </file>
@@ -2793,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="D62" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>2</v>
@@ -2892,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2910,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="91" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>9</v>
@@ -2931,25 +2931,25 @@
         <v>17</v>
       </c>
       <c r="S1" s="74" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W1" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>283</v>
       </c>
       <c r="Z1" s="13" t="s">
         <v>21</v>
@@ -2967,7 +2967,7 @@
         <v>25</v>
       </c>
       <c r="AE1" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>27</v>
@@ -2982,10 +2982,10 @@
         <v>30</v>
       </c>
       <c r="AJ1" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK1" s="73" t="s">
         <v>284</v>
-      </c>
-      <c r="AK1" s="73" t="s">
-        <v>285</v>
       </c>
       <c r="AL1" s="19" t="s">
         <v>31</v>
@@ -3039,19 +3039,19 @@
         <v>47</v>
       </c>
       <c r="BC1" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="BD1" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="BE1" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="BD1" s="58" t="s">
+      <c r="BF1" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="BE1" s="58" t="s">
+      <c r="BG1" s="58" t="s">
         <v>503</v>
-      </c>
-      <c r="BF1" s="58" t="s">
-        <v>504</v>
-      </c>
-      <c r="BG1" s="58" t="s">
-        <v>505</v>
       </c>
       <c r="BH1" s="30" t="s">
         <v>48</v>
@@ -3093,25 +3093,25 @@
         <v>60</v>
       </c>
       <c r="BU1" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="BV1" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="BW1" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="BV1" s="30" t="s">
+      <c r="BX1" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="BW1" s="30" t="s">
+      <c r="BY1" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="BX1" s="30" t="s">
+      <c r="BZ1" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="BY1" s="30" t="s">
+      <c r="CA1" s="33" t="s">
         <v>498</v>
-      </c>
-      <c r="BZ1" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="CA1" s="33" t="s">
-        <v>500</v>
       </c>
       <c r="CB1" s="34" t="s">
         <v>61</v>
@@ -3126,10 +3126,10 @@
         <v>64</v>
       </c>
       <c r="CF1" s="75" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="CG1" s="75" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="CH1" s="37" t="s">
         <v>65</v>
@@ -3159,19 +3159,19 @@
         <v>73</v>
       </c>
       <c r="CQ1" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="CR1" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="CS1" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="CR1" s="42" t="s">
+      <c r="CT1" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="CS1" s="42" t="s">
+      <c r="CU1" s="42" t="s">
         <v>508</v>
-      </c>
-      <c r="CT1" s="42" t="s">
-        <v>509</v>
-      </c>
-      <c r="CU1" s="42" t="s">
-        <v>510</v>
       </c>
       <c r="CV1" s="42" t="s">
         <v>79</v>
@@ -3180,10 +3180,10 @@
         <v>80</v>
       </c>
       <c r="CX1" s="42" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="CY1" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="CZ1" s="42" t="s">
         <v>83</v>
@@ -3210,132 +3210,132 @@
         <v>90</v>
       </c>
       <c r="DH1" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="DI1" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="DI1" s="46" t="s">
+      <c r="DJ1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="DJ1" s="46" t="s">
+      <c r="DK1" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="DK1" s="46" t="s">
+      <c r="DL1" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="DL1" s="46" t="s">
+      <c r="DM1" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="DM1" s="46" t="s">
+      <c r="DN1" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="DN1" s="46" t="s">
+      <c r="DO1" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="DO1" s="46" t="s">
-        <v>227</v>
-      </c>
       <c r="DP1" s="46" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:120" s="84" customFormat="1" ht="116">
       <c r="A2" s="84" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G2" s="84">
         <v>2016</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I2" s="84" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J2" s="86" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K2" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L2" s="89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M2" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>446</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="P2" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q2" s="88" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="N2" s="86" t="s">
-        <v>448</v>
-      </c>
-      <c r="O2" s="86" t="s">
-        <v>409</v>
-      </c>
-      <c r="P2" s="84" t="s">
+      <c r="S2" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="T2" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="Q2" s="88" t="s">
-        <v>490</v>
-      </c>
-      <c r="R2" s="84" t="s">
+      <c r="U2" s="84" t="s">
         <v>472</v>
       </c>
-      <c r="S2" s="84" t="s">
-        <v>408</v>
-      </c>
-      <c r="T2" s="84" t="s">
+      <c r="V2" s="84" t="s">
+        <v>481</v>
+      </c>
+      <c r="W2" s="84" t="s">
+        <v>480</v>
+      </c>
+      <c r="X2" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="U2" s="84" t="s">
+      <c r="Z2" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA2" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB2" s="84" t="s">
         <v>474</v>
       </c>
-      <c r="V2" s="84" t="s">
-        <v>483</v>
-      </c>
-      <c r="W2" s="84" t="s">
-        <v>482</v>
-      </c>
-      <c r="X2" s="84" t="s">
+      <c r="AC2" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="Z2" s="84" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA2" s="84" t="s">
-        <v>481</v>
-      </c>
-      <c r="AB2" s="84" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC2" s="84" t="s">
-        <v>477</v>
-      </c>
       <c r="AE2" s="84" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF2" s="84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG2" s="84">
         <v>74</v>
       </c>
       <c r="AL2" s="84" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="CQ2" s="84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="CR2" s="84">
         <v>0.11</v>
@@ -3344,7 +3344,7 @@
         <v>0.01</v>
       </c>
       <c r="CT2" s="84" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CU2" s="84">
         <v>0.11</v>
@@ -3353,10 +3353,10 @@
         <v>0.01</v>
       </c>
       <c r="CY2" s="84" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="CZ2" s="84" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="DH2">
         <v>1</v>
@@ -3389,78 +3389,78 @@
     </row>
     <row r="3" spans="1:120" ht="20">
       <c r="B3" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="69" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G3">
         <v>2012</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K3" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L3" s="90"/>
       <c r="M3" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N3" s="69" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O3" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="S3" t="s">
+        <v>450</v>
+      </c>
+      <c r="T3" t="s">
+        <v>451</v>
+      </c>
+      <c r="U3" t="s">
+        <v>311</v>
+      </c>
+      <c r="V3" t="s">
+        <v>452</v>
+      </c>
+      <c r="W3" t="s">
         <v>449</v>
       </c>
-      <c r="S3" t="s">
-        <v>452</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>453</v>
       </c>
-      <c r="U3" t="s">
-        <v>312</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>454</v>
       </c>
-      <c r="W3" t="s">
-        <v>451</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" t="s">
         <v>455</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD3" t="s">
         <v>456</v>
       </c>
-      <c r="Z3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>458</v>
-      </c>
       <c r="AF3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AG3">
         <v>99</v>
@@ -3481,83 +3481,83 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="CZ3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:120" ht="20">
       <c r="B4" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="83"/>
       <c r="D4" s="69" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E4" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G4">
         <v>2012</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K4" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L4" s="90"/>
       <c r="M4" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N4" s="69" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O4" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="S4" t="s">
+        <v>450</v>
+      </c>
+      <c r="T4" t="s">
+        <v>451</v>
+      </c>
+      <c r="U4" t="s">
+        <v>311</v>
+      </c>
+      <c r="V4" t="s">
+        <v>452</v>
+      </c>
+      <c r="W4" t="s">
         <v>449</v>
       </c>
-      <c r="S4" t="s">
-        <v>452</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>453</v>
       </c>
-      <c r="U4" t="s">
-        <v>312</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>454</v>
       </c>
-      <c r="W4" t="s">
-        <v>451</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA4" t="s">
         <v>455</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD4" t="s">
         <v>456</v>
       </c>
-      <c r="Z4" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>458</v>
-      </c>
       <c r="AF4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AG4">
         <v>99</v>
@@ -3578,96 +3578,96 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="CZ4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:120" s="92" customFormat="1" ht="87">
       <c r="A5" s="92" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B5" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>234</v>
-      </c>
       <c r="D5" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F5" s="92" t="s">
         <v>332</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>333</v>
       </c>
       <c r="G5" s="92">
         <v>2014</v>
       </c>
       <c r="H5" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="J5" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="K5" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="N5" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="P5" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q5" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="S5" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="T5" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="U5" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="V5" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="W5" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="X5" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y5" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z5" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA5" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB5" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD5" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE5" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="L5" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="N5" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="P5" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q5" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="S5" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="T5" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="U5" s="92" t="s">
-        <v>340</v>
-      </c>
-      <c r="V5" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="W5" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="X5" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y5" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z5" s="92" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA5" s="92" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB5" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD5" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE5" s="92" t="s">
-        <v>487</v>
-      </c>
       <c r="AF5" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG5" s="92">
         <v>271</v>
@@ -3682,16 +3682,16 @@
         <v>80</v>
       </c>
       <c r="DA5" s="92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DB5" s="92">
         <v>163</v>
       </c>
       <c r="DC5" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD5" s="92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DH5" s="92">
         <v>1</v>
@@ -3724,88 +3724,88 @@
     </row>
     <row r="6" spans="1:120" s="92" customFormat="1" ht="87">
       <c r="B6" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>234</v>
-      </c>
       <c r="D6" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F6" s="92" t="s">
         <v>332</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>333</v>
       </c>
       <c r="G6" s="92">
         <v>2014</v>
       </c>
       <c r="H6" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="J6" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="K6" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="N6" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="P6" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q6" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="S6" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="T6" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="U6" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="V6" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="W6" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="X6" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y6" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z6" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA6" s="92" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB6" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD6" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE6" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="L6" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="N6" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="P6" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q6" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="S6" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="T6" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="U6" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="V6" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="W6" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="X6" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y6" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z6" s="92" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA6" s="92" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB6" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD6" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE6" s="92" t="s">
-        <v>487</v>
-      </c>
       <c r="AF6" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG6" s="92">
         <v>271</v>
@@ -3820,16 +3820,16 @@
         <v>80</v>
       </c>
       <c r="DA6" s="92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DB6" s="92">
         <v>63.6</v>
       </c>
       <c r="DC6" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD6" s="92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DH6" s="92">
         <v>1</v>
@@ -3862,88 +3862,88 @@
     </row>
     <row r="7" spans="1:120" s="65" customFormat="1" ht="87">
       <c r="B7" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="98" t="s">
-        <v>234</v>
-      </c>
       <c r="D7" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>332</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>333</v>
       </c>
       <c r="G7" s="65">
         <v>2014</v>
       </c>
       <c r="H7" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="J7" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="K7" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="L7" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q7" s="100" t="s">
+        <v>491</v>
+      </c>
+      <c r="S7" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="T7" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="U7" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="V7" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="W7" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="X7" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y7" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z7" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA7" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB7" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD7" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE7" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="L7" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="98" t="s">
-        <v>488</v>
-      </c>
-      <c r="N7" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="P7" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q7" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="S7" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="T7" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="U7" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="V7" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="W7" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="X7" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y7" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z7" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA7" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB7" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD7" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE7" s="65" t="s">
-        <v>487</v>
-      </c>
       <c r="AF7" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG7" s="65">
         <v>271</v>
@@ -3958,102 +3958,102 @@
         <v>80</v>
       </c>
       <c r="DA7" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DB7" s="65">
         <v>87.3</v>
       </c>
       <c r="DC7" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD7" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:120" s="92" customFormat="1" ht="87">
       <c r="B8" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="94" t="s">
-        <v>234</v>
-      </c>
       <c r="D8" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="92" t="s">
         <v>332</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>333</v>
       </c>
       <c r="G8" s="92">
         <v>2014</v>
       </c>
       <c r="H8" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="J8" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="K8" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="L8" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="N8" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="P8" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q8" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="S8" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="K8" s="95" t="s">
+      <c r="T8" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="U8" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="V8" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="W8" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="X8" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y8" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z8" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA8" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB8" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD8" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE8" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="L8" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="M8" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="N8" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="P8" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q8" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="S8" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="T8" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="U8" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="V8" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="W8" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="X8" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y8" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z8" s="92" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA8" s="92" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB8" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD8" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE8" s="92" t="s">
-        <v>487</v>
-      </c>
       <c r="AF8" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG8" s="92">
         <v>271</v>
@@ -4065,102 +4065,102 @@
         <v>48</v>
       </c>
       <c r="DA8" s="92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DB8" s="92">
         <v>9.93</v>
       </c>
       <c r="DC8" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD8" s="92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:120" s="92" customFormat="1" ht="87">
       <c r="B9" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="94" t="s">
-        <v>234</v>
-      </c>
       <c r="D9" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F9" s="92" t="s">
         <v>332</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>333</v>
       </c>
       <c r="G9" s="92">
         <v>2014</v>
       </c>
       <c r="H9" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="J9" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="K9" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="L9" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="M9" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="N9" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="P9" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q9" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="S9" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="T9" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="U9" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="V9" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="W9" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="X9" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y9" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z9" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA9" s="92" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB9" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD9" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE9" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="L9" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="M9" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="N9" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="P9" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q9" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="S9" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="T9" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="U9" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="V9" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="W9" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="X9" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y9" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z9" s="92" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA9" s="92" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB9" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD9" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE9" s="92" t="s">
-        <v>487</v>
-      </c>
       <c r="AF9" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG9" s="92">
         <v>271</v>
@@ -4175,13 +4175,13 @@
         <v>80</v>
       </c>
       <c r="DA9" s="92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DB9" s="92">
         <v>2.65</v>
       </c>
       <c r="DC9" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD9" s="92">
         <v>7.0000000000000007E-2</v>
@@ -4189,88 +4189,88 @@
     </row>
     <row r="10" spans="1:120" s="65" customFormat="1" ht="87">
       <c r="B10" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="98" t="s">
-        <v>234</v>
-      </c>
       <c r="D10" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>332</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>333</v>
       </c>
       <c r="G10" s="65">
         <v>2014</v>
       </c>
       <c r="H10" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="J10" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="K10" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="L10" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="N10" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="P10" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q10" s="100" t="s">
+        <v>491</v>
+      </c>
+      <c r="S10" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="T10" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="U10" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="V10" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="W10" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="X10" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y10" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z10" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA10" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB10" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD10" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE10" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="L10" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="98" t="s">
-        <v>488</v>
-      </c>
-      <c r="N10" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="P10" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q10" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="S10" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="T10" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="U10" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="V10" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="W10" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="X10" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y10" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z10" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA10" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB10" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD10" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE10" s="65" t="s">
-        <v>487</v>
-      </c>
       <c r="AF10" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG10" s="65">
         <v>271</v>
@@ -4285,13 +4285,13 @@
         <v>80</v>
       </c>
       <c r="DA10" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DB10" s="65">
         <v>9.39</v>
       </c>
       <c r="DC10" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD10" s="65">
         <v>1E-4</v>
@@ -4299,85 +4299,85 @@
     </row>
     <row r="11" spans="1:120" s="92" customFormat="1" ht="87">
       <c r="B11" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>234</v>
-      </c>
       <c r="D11" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" s="92" t="s">
         <v>332</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>333</v>
       </c>
       <c r="G11" s="92">
         <v>2014</v>
       </c>
       <c r="H11" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="J11" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="K11" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="L11" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="N11" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="P11" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q11" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="S11" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="T11" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="U11" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="V11" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="W11" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="X11" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z11" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA11" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB11" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD11" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE11" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="L11" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="N11" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="P11" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q11" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="S11" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="T11" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="U11" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="V11" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="W11" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="X11" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z11" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA11" s="92" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB11" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD11" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE11" s="92" t="s">
-        <v>487</v>
-      </c>
       <c r="AF11" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG11" s="92">
         <v>271</v>
@@ -4389,13 +4389,13 @@
         <v>48</v>
       </c>
       <c r="DA11" s="92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DB11" s="92">
         <v>3.26</v>
       </c>
       <c r="DC11" s="92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DD11" s="92">
         <v>1E-3</v>
@@ -4403,85 +4403,85 @@
     </row>
     <row r="12" spans="1:120" s="92" customFormat="1" ht="87">
       <c r="B12" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="94" t="s">
-        <v>234</v>
-      </c>
       <c r="D12" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="92" t="s">
         <v>332</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>333</v>
       </c>
       <c r="G12" s="92">
         <v>2014</v>
       </c>
       <c r="H12" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="J12" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="J12" s="92" t="s">
+      <c r="K12" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="L12" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="N12" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="P12" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q12" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="S12" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="K12" s="95" t="s">
+      <c r="T12" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="U12" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="V12" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="W12" s="92" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y12" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z12" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA12" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB12" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD12" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE12" s="92" t="s">
         <v>485</v>
       </c>
-      <c r="L12" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="N12" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="P12" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q12" s="96" t="s">
-        <v>493</v>
-      </c>
-      <c r="S12" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="T12" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="U12" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="V12" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="W12" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y12" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z12" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA12" s="92" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB12" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD12" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE12" s="92" t="s">
-        <v>487</v>
-      </c>
       <c r="AF12" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG12" s="92">
         <v>271</v>
@@ -4493,13 +4493,13 @@
         <v>80</v>
       </c>
       <c r="DA12" s="92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DB12" s="92">
         <v>3.77</v>
       </c>
       <c r="DC12" s="92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DD12" s="92">
         <v>2.9999999999999997E-4</v>
@@ -4507,85 +4507,85 @@
     </row>
     <row r="13" spans="1:120" s="65" customFormat="1" ht="87">
       <c r="B13" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="98" t="s">
-        <v>234</v>
-      </c>
       <c r="D13" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F13" s="65" t="s">
         <v>332</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>333</v>
       </c>
       <c r="G13" s="65">
         <v>2014</v>
       </c>
       <c r="H13" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="J13" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="K13" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="L13" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="P13" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q13" s="100" t="s">
+        <v>491</v>
+      </c>
+      <c r="S13" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="K13" s="99" t="s">
+      <c r="T13" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="U13" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="V13" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="W13" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="X13" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z13" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA13" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB13" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD13" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE13" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="L13" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="98" t="s">
-        <v>488</v>
-      </c>
-      <c r="N13" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="P13" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q13" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="S13" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="T13" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="U13" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="V13" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="W13" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="X13" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z13" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA13" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB13" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD13" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE13" s="65" t="s">
-        <v>487</v>
-      </c>
       <c r="AF13" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG13" s="65">
         <v>271</v>
@@ -4597,13 +4597,13 @@
         <v>48</v>
       </c>
       <c r="DA13" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DB13" s="65">
         <v>2.4</v>
       </c>
       <c r="DC13" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DD13" s="65">
         <v>0.02</v>
@@ -4611,85 +4611,85 @@
     </row>
     <row r="14" spans="1:120" s="65" customFormat="1" ht="87">
       <c r="B14" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>234</v>
-      </c>
       <c r="D14" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>332</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>333</v>
       </c>
       <c r="G14" s="65">
         <v>2014</v>
       </c>
       <c r="H14" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="J14" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="K14" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="P14" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q14" s="100" t="s">
+        <v>491</v>
+      </c>
+      <c r="S14" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="K14" s="99" t="s">
+      <c r="T14" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="U14" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="V14" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="W14" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y14" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z14" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA14" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB14" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD14" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE14" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="L14" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="98" t="s">
-        <v>488</v>
-      </c>
-      <c r="N14" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="P14" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q14" s="100" t="s">
-        <v>493</v>
-      </c>
-      <c r="S14" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="T14" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="U14" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="V14" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="W14" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y14" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z14" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA14" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB14" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD14" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE14" s="65" t="s">
-        <v>487</v>
-      </c>
       <c r="AF14" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG14" s="65">
         <v>271</v>
@@ -4701,13 +4701,13 @@
         <v>80</v>
       </c>
       <c r="DA14" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DB14" s="65">
         <v>3.57</v>
       </c>
       <c r="DC14" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DD14" s="65">
         <v>6.9999999999999999E-4</v>
@@ -4715,59 +4715,59 @@
     </row>
     <row r="15" spans="1:120" ht="15.5">
       <c r="B15" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G15">
         <v>2020</v>
       </c>
       <c r="H15" t="s">
+        <v>376</v>
+      </c>
+      <c r="J15" t="s">
         <v>377</v>
       </c>
-      <c r="J15" t="s">
-        <v>378</v>
-      </c>
       <c r="K15" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L15" s="90"/>
       <c r="M15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z15" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA15" t="s">
         <v>437</v>
       </c>
-      <c r="AA15" t="s">
-        <v>438</v>
-      </c>
       <c r="AB15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG15">
         <v>99</v>
@@ -4793,77 +4793,77 @@
     </row>
     <row r="16" spans="1:120" ht="101.5">
       <c r="B16" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
         <v>264</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>265</v>
       </c>
       <c r="G16">
         <v>2020</v>
       </c>
       <c r="H16" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I16" t="s">
         <v>266</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>267</v>
       </c>
-      <c r="J16" t="s">
-        <v>268</v>
-      </c>
       <c r="K16" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L16" s="90"/>
       <c r="M16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
+        <v>268</v>
+      </c>
+      <c r="S16" t="s">
+        <v>288</v>
+      </c>
+      <c r="T16" t="s">
+        <v>287</v>
+      </c>
+      <c r="U16" t="s">
+        <v>289</v>
+      </c>
+      <c r="V16" t="s">
+        <v>274</v>
+      </c>
+      <c r="W16" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="X16" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA16" t="s">
         <v>269</v>
       </c>
-      <c r="S16" t="s">
-        <v>289</v>
-      </c>
-      <c r="T16" t="s">
-        <v>288</v>
-      </c>
-      <c r="U16" t="s">
-        <v>290</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="AB16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF16" t="s">
         <v>275</v>
-      </c>
-      <c r="W16" s="66" t="s">
-        <v>291</v>
-      </c>
-      <c r="X16" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>276</v>
       </c>
       <c r="AG16">
         <v>938</v>
@@ -4882,88 +4882,88 @@
         <v>2.83</v>
       </c>
       <c r="DC16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD16">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="DE16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:109" ht="101.5">
       <c r="B17" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
         <v>264</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>265</v>
       </c>
       <c r="G17">
         <v>2020</v>
       </c>
       <c r="H17" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" t="s">
         <v>266</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>267</v>
       </c>
-      <c r="J17" t="s">
-        <v>268</v>
-      </c>
       <c r="K17" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L17" s="90"/>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
+        <v>268</v>
+      </c>
+      <c r="S17" t="s">
+        <v>288</v>
+      </c>
+      <c r="T17" t="s">
+        <v>287</v>
+      </c>
+      <c r="U17" t="s">
+        <v>289</v>
+      </c>
+      <c r="V17" t="s">
+        <v>274</v>
+      </c>
+      <c r="W17" t="s">
+        <v>290</v>
+      </c>
+      <c r="X17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA17" t="s">
         <v>269</v>
       </c>
-      <c r="S17" t="s">
-        <v>289</v>
-      </c>
-      <c r="T17" t="s">
-        <v>288</v>
-      </c>
-      <c r="U17" t="s">
-        <v>290</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="AB17" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF17" t="s">
         <v>275</v>
-      </c>
-      <c r="W17" t="s">
-        <v>291</v>
-      </c>
-      <c r="X17" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>276</v>
       </c>
       <c r="AG17">
         <v>938</v>
@@ -4982,88 +4982,88 @@
         <v>2.17</v>
       </c>
       <c r="DC17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="DD17">
         <v>0.115</v>
       </c>
       <c r="DE17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:109" ht="101.5">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
         <v>264</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>265</v>
       </c>
       <c r="G18">
         <v>2020</v>
       </c>
       <c r="H18" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" t="s">
         <v>266</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>267</v>
       </c>
-      <c r="J18" t="s">
-        <v>268</v>
-      </c>
       <c r="K18" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L18" s="90"/>
       <c r="M18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
+        <v>268</v>
+      </c>
+      <c r="S18" t="s">
+        <v>288</v>
+      </c>
+      <c r="T18" t="s">
+        <v>287</v>
+      </c>
+      <c r="V18" t="s">
+        <v>274</v>
+      </c>
+      <c r="W18" t="s">
+        <v>290</v>
+      </c>
+      <c r="X18" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA18" t="s">
         <v>269</v>
       </c>
-      <c r="S18" t="s">
-        <v>289</v>
-      </c>
-      <c r="T18" t="s">
-        <v>288</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="AB18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF18" t="s">
         <v>275</v>
-      </c>
-      <c r="W18" t="s">
-        <v>291</v>
-      </c>
-      <c r="X18" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>276</v>
       </c>
       <c r="AG18">
         <v>938</v>
@@ -5089,83 +5089,83 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="BN18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:109" ht="101.5">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
         <v>264</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>265</v>
       </c>
       <c r="G19">
         <v>2020</v>
       </c>
       <c r="H19" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" t="s">
         <v>266</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>267</v>
       </c>
-      <c r="J19" t="s">
-        <v>268</v>
-      </c>
       <c r="K19" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L19" s="90"/>
       <c r="M19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X19" s="76"/>
       <c r="Y19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG19">
         <v>938</v>
@@ -5191,83 +5191,83 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="BN19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:109" ht="101.5">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
         <v>264</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>265</v>
       </c>
       <c r="G20">
         <v>2020</v>
       </c>
       <c r="H20" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" t="s">
         <v>266</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>267</v>
       </c>
-      <c r="J20" t="s">
-        <v>268</v>
-      </c>
       <c r="K20" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L20" s="90"/>
       <c r="M20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y20" s="77"/>
       <c r="Z20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG20">
         <v>938</v>
@@ -5293,83 +5293,83 @@
         <v>0.02</v>
       </c>
       <c r="BN20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:109" ht="101.5">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
         <v>264</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>265</v>
       </c>
       <c r="G21">
         <v>2020</v>
       </c>
       <c r="H21" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I21" t="s">
         <v>266</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>267</v>
       </c>
-      <c r="J21" t="s">
-        <v>268</v>
-      </c>
       <c r="K21" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L21" s="90"/>
       <c r="M21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U21" s="76"/>
       <c r="V21" t="s">
+        <v>274</v>
+      </c>
+      <c r="W21" t="s">
+        <v>290</v>
+      </c>
+      <c r="X21" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF21" t="s">
         <v>275</v>
-      </c>
-      <c r="W21" t="s">
-        <v>291</v>
-      </c>
-      <c r="X21" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>276</v>
       </c>
       <c r="AG21">
         <v>938</v>
@@ -5395,83 +5395,83 @@
         <v>0.06</v>
       </c>
       <c r="BN21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:109" ht="101.5">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
         <v>264</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>265</v>
       </c>
       <c r="G22">
         <v>2020</v>
       </c>
       <c r="H22" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" t="s">
         <v>266</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>267</v>
       </c>
-      <c r="J22" t="s">
-        <v>268</v>
-      </c>
       <c r="K22" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L22" s="90"/>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S22" t="s">
+        <v>288</v>
+      </c>
+      <c r="T22" t="s">
+        <v>287</v>
+      </c>
+      <c r="U22" t="s">
         <v>289</v>
       </c>
-      <c r="T22" t="s">
-        <v>288</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
+        <v>274</v>
+      </c>
+      <c r="W22" t="s">
         <v>290</v>
-      </c>
-      <c r="V22" t="s">
-        <v>275</v>
-      </c>
-      <c r="W22" t="s">
-        <v>291</v>
       </c>
       <c r="X22" s="76"/>
       <c r="Y22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG22">
         <v>938</v>
@@ -5497,83 +5497,83 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="BN22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:109" ht="101.5">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
         <v>264</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>265</v>
       </c>
       <c r="G23">
         <v>2020</v>
       </c>
       <c r="H23" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" t="s">
         <v>266</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>267</v>
       </c>
-      <c r="J23" t="s">
-        <v>268</v>
-      </c>
       <c r="K23" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L23" s="90"/>
       <c r="M23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S23" t="s">
+        <v>288</v>
+      </c>
+      <c r="T23" t="s">
+        <v>287</v>
+      </c>
+      <c r="U23" t="s">
         <v>289</v>
       </c>
-      <c r="T23" t="s">
-        <v>288</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
+        <v>274</v>
+      </c>
+      <c r="W23" t="s">
         <v>290</v>
       </c>
-      <c r="V23" t="s">
-        <v>275</v>
-      </c>
-      <c r="W23" t="s">
-        <v>291</v>
-      </c>
       <c r="X23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y23" s="77"/>
       <c r="Z23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG23">
         <v>938</v>
@@ -5599,79 +5599,79 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="BN23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:109" ht="101.5">
       <c r="B24" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
         <v>299</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>300</v>
-      </c>
-      <c r="F24" t="s">
-        <v>301</v>
       </c>
       <c r="G24">
         <v>2017</v>
       </c>
       <c r="H24" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24" t="s">
         <v>304</v>
       </c>
-      <c r="I24" t="s">
-        <v>305</v>
-      </c>
       <c r="J24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K24" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L24" s="90"/>
       <c r="M24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s">
+        <v>307</v>
+      </c>
+      <c r="O24" t="s">
+        <v>305</v>
+      </c>
+      <c r="S24" t="s">
+        <v>313</v>
+      </c>
+      <c r="T24" t="s">
+        <v>312</v>
+      </c>
+      <c r="U24" t="s">
+        <v>311</v>
+      </c>
+      <c r="V24" t="s">
         <v>308</v>
       </c>
-      <c r="O24" t="s">
-        <v>306</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="W24" t="s">
+        <v>309</v>
+      </c>
+      <c r="X24" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z24" t="s">
         <v>314</v>
       </c>
-      <c r="T24" t="s">
-        <v>313</v>
-      </c>
-      <c r="U24" t="s">
-        <v>312</v>
-      </c>
-      <c r="V24" t="s">
-        <v>309</v>
-      </c>
-      <c r="W24" t="s">
-        <v>310</v>
-      </c>
-      <c r="X24" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>315</v>
       </c>
-      <c r="AA24" t="s">
-        <v>316</v>
-      </c>
       <c r="AB24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG24" s="76"/>
       <c r="AH24">
@@ -5693,82 +5693,82 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="CM24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:109" ht="101.5">
       <c r="B25" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" t="s">
         <v>299</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>300</v>
-      </c>
-      <c r="F25" t="s">
-        <v>301</v>
       </c>
       <c r="G25">
         <v>2017</v>
       </c>
       <c r="H25" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" t="s">
         <v>304</v>
       </c>
-      <c r="I25" t="s">
-        <v>305</v>
-      </c>
       <c r="J25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K25" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L25" s="90"/>
       <c r="M25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N25" t="s">
+        <v>307</v>
+      </c>
+      <c r="O25" t="s">
+        <v>305</v>
+      </c>
+      <c r="S25" t="s">
+        <v>313</v>
+      </c>
+      <c r="T25" t="s">
+        <v>312</v>
+      </c>
+      <c r="U25" t="s">
+        <v>311</v>
+      </c>
+      <c r="V25" t="s">
         <v>308</v>
       </c>
-      <c r="O25" t="s">
-        <v>306</v>
-      </c>
-      <c r="S25" t="s">
-        <v>314</v>
-      </c>
-      <c r="T25" t="s">
-        <v>313</v>
-      </c>
-      <c r="U25" t="s">
-        <v>312</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>309</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>310</v>
       </c>
-      <c r="X25" t="s">
-        <v>311</v>
-      </c>
       <c r="Z25" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA25" t="s">
         <v>319</v>
       </c>
-      <c r="AA25" t="s">
-        <v>320</v>
-      </c>
       <c r="AB25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG25" s="76"/>
       <c r="AH25">
@@ -5790,82 +5790,82 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="CM25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:109" ht="101.5">
       <c r="B26" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" t="s">
         <v>299</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>300</v>
-      </c>
-      <c r="F26" t="s">
-        <v>301</v>
       </c>
       <c r="G26">
         <v>2017</v>
       </c>
       <c r="H26" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" t="s">
         <v>304</v>
       </c>
-      <c r="I26" t="s">
-        <v>305</v>
-      </c>
       <c r="J26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K26" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L26" s="90"/>
       <c r="M26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N26" t="s">
+        <v>307</v>
+      </c>
+      <c r="O26" t="s">
+        <v>305</v>
+      </c>
+      <c r="S26" t="s">
+        <v>313</v>
+      </c>
+      <c r="T26" t="s">
+        <v>312</v>
+      </c>
+      <c r="U26" t="s">
+        <v>311</v>
+      </c>
+      <c r="V26" t="s">
         <v>308</v>
       </c>
-      <c r="O26" t="s">
-        <v>306</v>
-      </c>
-      <c r="S26" t="s">
-        <v>314</v>
-      </c>
-      <c r="T26" t="s">
-        <v>313</v>
-      </c>
-      <c r="U26" t="s">
-        <v>312</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>309</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>310</v>
       </c>
-      <c r="X26" t="s">
-        <v>311</v>
-      </c>
       <c r="Z26" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG26" s="76"/>
       <c r="AH26">
@@ -5887,82 +5887,82 @@
         <v>5.93</v>
       </c>
       <c r="CM26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:109" ht="101.5">
       <c r="B27" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
         <v>299</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>300</v>
-      </c>
-      <c r="F27" t="s">
-        <v>301</v>
       </c>
       <c r="G27">
         <v>2017</v>
       </c>
       <c r="H27" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I27" t="s">
         <v>304</v>
       </c>
-      <c r="I27" t="s">
-        <v>305</v>
-      </c>
       <c r="J27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K27" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L27" s="90"/>
       <c r="M27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N27" t="s">
+        <v>307</v>
+      </c>
+      <c r="O27" t="s">
+        <v>305</v>
+      </c>
+      <c r="S27" t="s">
+        <v>313</v>
+      </c>
+      <c r="T27" t="s">
+        <v>312</v>
+      </c>
+      <c r="U27" t="s">
+        <v>311</v>
+      </c>
+      <c r="V27" t="s">
         <v>308</v>
       </c>
-      <c r="O27" t="s">
-        <v>306</v>
-      </c>
-      <c r="S27" t="s">
-        <v>314</v>
-      </c>
-      <c r="T27" t="s">
-        <v>313</v>
-      </c>
-      <c r="U27" t="s">
-        <v>312</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>309</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>310</v>
       </c>
-      <c r="X27" t="s">
-        <v>311</v>
-      </c>
       <c r="Z27" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG27" s="76"/>
       <c r="AH27">
@@ -5984,79 +5984,79 @@
         <v>14.03</v>
       </c>
       <c r="CM27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:109" ht="101.5">
       <c r="B28" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
         <v>299</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>300</v>
-      </c>
-      <c r="F28" t="s">
-        <v>301</v>
       </c>
       <c r="G28">
         <v>2017</v>
       </c>
       <c r="H28" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I28" t="s">
         <v>304</v>
       </c>
-      <c r="I28" t="s">
-        <v>305</v>
-      </c>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K28" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L28" s="90"/>
       <c r="M28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N28" t="s">
+        <v>307</v>
+      </c>
+      <c r="O28" t="s">
+        <v>305</v>
+      </c>
+      <c r="S28" t="s">
+        <v>313</v>
+      </c>
+      <c r="T28" t="s">
+        <v>312</v>
+      </c>
+      <c r="U28" t="s">
+        <v>311</v>
+      </c>
+      <c r="V28" t="s">
         <v>308</v>
       </c>
-      <c r="O28" t="s">
-        <v>306</v>
-      </c>
-      <c r="S28" t="s">
-        <v>314</v>
-      </c>
-      <c r="T28" t="s">
-        <v>313</v>
-      </c>
-      <c r="U28" t="s">
-        <v>312</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>309</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>310</v>
       </c>
-      <c r="X28" t="s">
-        <v>311</v>
-      </c>
       <c r="Z28" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG28" s="76"/>
       <c r="AH28">
@@ -6072,79 +6072,79 @@
         <v>1.7</v>
       </c>
       <c r="CM28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:109" ht="101.5">
       <c r="B29" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" t="s">
         <v>299</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>300</v>
-      </c>
-      <c r="F29" t="s">
-        <v>301</v>
       </c>
       <c r="G29">
         <v>2017</v>
       </c>
       <c r="H29" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I29" t="s">
         <v>304</v>
       </c>
-      <c r="I29" t="s">
-        <v>305</v>
-      </c>
       <c r="J29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K29" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L29" s="90"/>
       <c r="M29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N29" t="s">
+        <v>307</v>
+      </c>
+      <c r="O29" t="s">
+        <v>305</v>
+      </c>
+      <c r="S29" t="s">
+        <v>313</v>
+      </c>
+      <c r="T29" t="s">
+        <v>312</v>
+      </c>
+      <c r="U29" t="s">
+        <v>311</v>
+      </c>
+      <c r="V29" t="s">
         <v>308</v>
       </c>
-      <c r="O29" t="s">
-        <v>306</v>
-      </c>
-      <c r="S29" t="s">
-        <v>314</v>
-      </c>
-      <c r="T29" t="s">
-        <v>313</v>
-      </c>
-      <c r="U29" t="s">
-        <v>312</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>309</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>310</v>
       </c>
-      <c r="X29" t="s">
-        <v>311</v>
-      </c>
       <c r="Z29" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" s="76"/>
       <c r="AH29">
@@ -6160,82 +6160,82 @@
         <v>71.7</v>
       </c>
       <c r="CM29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:109" ht="101.5">
       <c r="B30" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" t="s">
         <v>299</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>300</v>
-      </c>
-      <c r="F30" t="s">
-        <v>301</v>
       </c>
       <c r="G30">
         <v>2017</v>
       </c>
       <c r="H30" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I30" t="s">
         <v>304</v>
       </c>
-      <c r="I30" t="s">
-        <v>305</v>
-      </c>
       <c r="J30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K30" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L30" s="90"/>
       <c r="M30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N30" t="s">
+        <v>307</v>
+      </c>
+      <c r="O30" t="s">
+        <v>305</v>
+      </c>
+      <c r="S30" t="s">
+        <v>313</v>
+      </c>
+      <c r="T30" t="s">
+        <v>312</v>
+      </c>
+      <c r="U30" t="s">
+        <v>311</v>
+      </c>
+      <c r="V30" t="s">
         <v>308</v>
       </c>
-      <c r="O30" t="s">
-        <v>306</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="W30" t="s">
+        <v>326</v>
+      </c>
+      <c r="X30" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z30" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="T30" t="s">
-        <v>313</v>
-      </c>
-      <c r="U30" t="s">
-        <v>312</v>
-      </c>
-      <c r="V30" t="s">
-        <v>309</v>
-      </c>
-      <c r="W30" t="s">
-        <v>327</v>
-      </c>
-      <c r="X30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z30" s="78" t="s">
+      <c r="AA30" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="AA30" s="78" t="s">
-        <v>316</v>
-      </c>
       <c r="AB30" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF30" t="s">
         <v>302</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>303</v>
       </c>
       <c r="AG30" s="76"/>
       <c r="AH30">
@@ -6257,82 +6257,82 @@
         <v>4.21</v>
       </c>
       <c r="CM30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:109" ht="101.5">
       <c r="B31" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
         <v>299</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>300</v>
-      </c>
-      <c r="F31" t="s">
-        <v>301</v>
       </c>
       <c r="G31">
         <v>2017</v>
       </c>
       <c r="H31" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I31" t="s">
         <v>304</v>
       </c>
-      <c r="I31" t="s">
-        <v>305</v>
-      </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K31" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L31" s="90"/>
       <c r="M31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N31" t="s">
+        <v>307</v>
+      </c>
+      <c r="O31" t="s">
+        <v>305</v>
+      </c>
+      <c r="S31" t="s">
+        <v>313</v>
+      </c>
+      <c r="T31" t="s">
+        <v>312</v>
+      </c>
+      <c r="U31" t="s">
+        <v>311</v>
+      </c>
+      <c r="V31" t="s">
         <v>308</v>
       </c>
-      <c r="O31" t="s">
-        <v>306</v>
-      </c>
-      <c r="S31" t="s">
-        <v>314</v>
-      </c>
-      <c r="T31" t="s">
-        <v>313</v>
-      </c>
-      <c r="U31" t="s">
-        <v>312</v>
-      </c>
-      <c r="V31" t="s">
-        <v>309</v>
-      </c>
       <c r="W31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z31" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA31" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="AA31" s="78" t="s">
-        <v>320</v>
-      </c>
       <c r="AB31" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF31" t="s">
         <v>302</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>303</v>
       </c>
       <c r="AG31" s="76"/>
       <c r="AH31">
@@ -6354,82 +6354,82 @@
         <v>4.95</v>
       </c>
       <c r="CM31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:109" ht="101.5">
       <c r="B32" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" t="s">
         <v>299</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>300</v>
-      </c>
-      <c r="F32" t="s">
-        <v>301</v>
       </c>
       <c r="G32">
         <v>2017</v>
       </c>
       <c r="H32" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I32" t="s">
         <v>304</v>
       </c>
-      <c r="I32" t="s">
-        <v>305</v>
-      </c>
       <c r="J32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K32" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L32" s="90"/>
       <c r="M32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N32" t="s">
+        <v>307</v>
+      </c>
+      <c r="O32" t="s">
+        <v>305</v>
+      </c>
+      <c r="S32" t="s">
+        <v>313</v>
+      </c>
+      <c r="T32" t="s">
+        <v>312</v>
+      </c>
+      <c r="U32" t="s">
+        <v>311</v>
+      </c>
+      <c r="V32" t="s">
         <v>308</v>
       </c>
-      <c r="O32" t="s">
-        <v>306</v>
-      </c>
-      <c r="S32" t="s">
-        <v>314</v>
-      </c>
-      <c r="T32" t="s">
-        <v>313</v>
-      </c>
-      <c r="U32" t="s">
-        <v>312</v>
-      </c>
-      <c r="V32" t="s">
-        <v>309</v>
-      </c>
       <c r="W32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z32" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA32" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB32" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF32" t="s">
         <v>302</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>303</v>
       </c>
       <c r="AG32" s="76"/>
       <c r="AH32">
@@ -6451,82 +6451,82 @@
         <v>6.54</v>
       </c>
       <c r="CM32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:108" ht="101.5">
       <c r="B33" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" t="s">
         <v>299</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>300</v>
-      </c>
-      <c r="F33" t="s">
-        <v>301</v>
       </c>
       <c r="G33">
         <v>2017</v>
       </c>
       <c r="H33" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I33" t="s">
         <v>304</v>
       </c>
-      <c r="I33" t="s">
-        <v>305</v>
-      </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K33" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L33" s="90"/>
       <c r="M33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>305</v>
+      </c>
+      <c r="S33" t="s">
+        <v>313</v>
+      </c>
+      <c r="T33" t="s">
+        <v>312</v>
+      </c>
+      <c r="U33" t="s">
+        <v>311</v>
+      </c>
+      <c r="V33" t="s">
         <v>308</v>
       </c>
-      <c r="O33" t="s">
-        <v>306</v>
-      </c>
-      <c r="S33" t="s">
-        <v>314</v>
-      </c>
-      <c r="T33" t="s">
-        <v>313</v>
-      </c>
-      <c r="U33" t="s">
-        <v>312</v>
-      </c>
-      <c r="V33" t="s">
-        <v>309</v>
-      </c>
       <c r="W33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z33" s="78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA33" s="78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB33" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF33" t="s">
         <v>302</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>303</v>
       </c>
       <c r="AG33" s="76"/>
       <c r="AH33">
@@ -6548,80 +6548,80 @@
         <v>14.46</v>
       </c>
       <c r="CM33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:108" ht="101.5">
       <c r="B34" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E34" t="s">
         <v>299</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>300</v>
-      </c>
-      <c r="F34" t="s">
-        <v>301</v>
       </c>
       <c r="G34">
         <v>2017</v>
       </c>
       <c r="H34" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I34" t="s">
         <v>304</v>
       </c>
-      <c r="I34" t="s">
-        <v>305</v>
-      </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K34" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L34" s="90"/>
       <c r="M34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>305</v>
+      </c>
+      <c r="S34" t="s">
+        <v>313</v>
+      </c>
+      <c r="T34" t="s">
+        <v>312</v>
+      </c>
+      <c r="U34" t="s">
+        <v>311</v>
+      </c>
+      <c r="V34" t="s">
         <v>308</v>
       </c>
-      <c r="O34" t="s">
-        <v>306</v>
-      </c>
-      <c r="S34" t="s">
-        <v>314</v>
-      </c>
-      <c r="T34" t="s">
-        <v>313</v>
-      </c>
-      <c r="U34" t="s">
-        <v>312</v>
-      </c>
-      <c r="V34" t="s">
-        <v>309</v>
-      </c>
       <c r="W34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z34" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA34" s="78"/>
       <c r="AB34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF34" t="s">
         <v>302</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>303</v>
       </c>
       <c r="AG34" s="76"/>
       <c r="AH34">
@@ -6643,80 +6643,80 @@
         <v>1.61</v>
       </c>
       <c r="CM34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:108" ht="101.5">
       <c r="B35" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" t="s">
         <v>299</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>300</v>
-      </c>
-      <c r="F35" t="s">
-        <v>301</v>
       </c>
       <c r="G35">
         <v>2017</v>
       </c>
       <c r="H35" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I35" t="s">
         <v>304</v>
       </c>
-      <c r="I35" t="s">
-        <v>305</v>
-      </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K35" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L35" s="90"/>
       <c r="M35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
+        <v>305</v>
+      </c>
+      <c r="S35" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="T35" t="s">
+        <v>312</v>
+      </c>
+      <c r="U35" t="s">
+        <v>311</v>
+      </c>
+      <c r="V35" t="s">
         <v>308</v>
       </c>
-      <c r="O35" t="s">
-        <v>306</v>
-      </c>
-      <c r="S35" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="T35" t="s">
-        <v>313</v>
-      </c>
-      <c r="U35" t="s">
-        <v>312</v>
-      </c>
-      <c r="V35" t="s">
-        <v>309</v>
-      </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z35" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA35" s="78"/>
       <c r="AB35" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF35" t="s">
         <v>302</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>303</v>
       </c>
       <c r="AH35">
         <v>24</v>
@@ -6737,88 +6737,88 @@
         <v>109.7</v>
       </c>
       <c r="CM35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="CP35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:108" ht="15.5">
       <c r="B36" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K36" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L36" s="90"/>
     </row>
     <row r="37" spans="1:108" ht="101.5">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
         <v>256</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>257</v>
       </c>
       <c r="G37">
         <v>2018</v>
       </c>
       <c r="H37" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" t="s">
         <v>258</v>
       </c>
-      <c r="I37" t="s">
-        <v>259</v>
-      </c>
       <c r="J37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K37" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L37" s="90"/>
       <c r="M37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N37" t="s">
+        <v>271</v>
+      </c>
+      <c r="P37" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q37" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="S37" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB37" t="s">
         <v>272</v>
       </c>
-      <c r="P37" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="S37" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>273</v>
-      </c>
       <c r="AF37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG37">
         <v>634</v>
@@ -6848,88 +6848,88 @@
         <v>0.03</v>
       </c>
       <c r="BY37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BZ37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:108" ht="15.5">
       <c r="B38" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" t="s">
         <v>358</v>
-      </c>
-      <c r="E38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F38" t="s">
-        <v>359</v>
       </c>
       <c r="G38">
         <v>2016</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I38" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" t="s">
         <v>360</v>
       </c>
-      <c r="J38" t="s">
-        <v>361</v>
-      </c>
       <c r="K38" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L38" s="90"/>
       <c r="M38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T38" t="s">
+        <v>367</v>
+      </c>
+      <c r="U38" t="s">
+        <v>369</v>
+      </c>
+      <c r="V38" t="s">
+        <v>366</v>
+      </c>
+      <c r="W38" t="s">
+        <v>383</v>
+      </c>
+      <c r="X38" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB38" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD38" t="s">
         <v>368</v>
       </c>
-      <c r="U38" t="s">
-        <v>370</v>
-      </c>
-      <c r="V38" t="s">
-        <v>367</v>
-      </c>
-      <c r="W38" t="s">
-        <v>384</v>
-      </c>
-      <c r="X38" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB38" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>369</v>
-      </c>
       <c r="AF38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG38">
         <v>245</v>
@@ -6948,13 +6948,13 @@
         <v>35</v>
       </c>
       <c r="AN38" s="80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="DA38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="DC38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD38">
         <v>3.3999999999999998E-3</v>
@@ -6962,74 +6962,74 @@
     </row>
     <row r="39" spans="1:108" ht="116">
       <c r="B39" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G39">
         <v>2014</v>
       </c>
       <c r="H39" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="I39" t="s">
         <v>440</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>441</v>
       </c>
-      <c r="J39" t="s">
-        <v>442</v>
-      </c>
       <c r="K39" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L39" s="90"/>
       <c r="M39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O39" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q39" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q39" s="71" t="s">
+      <c r="S39" t="s">
+        <v>413</v>
+      </c>
+      <c r="T39" t="s">
+        <v>442</v>
+      </c>
+      <c r="U39" t="s">
+        <v>311</v>
+      </c>
+      <c r="V39" t="s">
         <v>412</v>
       </c>
-      <c r="S39" t="s">
+      <c r="W39" t="s">
+        <v>422</v>
+      </c>
+      <c r="X39" t="s">
         <v>414</v>
       </c>
-      <c r="T39" t="s">
-        <v>443</v>
-      </c>
-      <c r="U39" t="s">
-        <v>312</v>
-      </c>
-      <c r="V39" t="s">
-        <v>413</v>
-      </c>
-      <c r="W39" t="s">
+      <c r="Z39" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB39" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF39" t="s">
         <v>423</v>
-      </c>
-      <c r="X39" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB39" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>424</v>
       </c>
       <c r="AG39">
         <v>314</v>
@@ -7053,7 +7053,7 @@
         <v>1.56</v>
       </c>
       <c r="DC39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD39">
         <v>1E-3</v>
@@ -7061,74 +7061,74 @@
     </row>
     <row r="40" spans="1:108" ht="116">
       <c r="B40" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G40">
         <v>2014</v>
       </c>
       <c r="H40" t="s">
+        <v>439</v>
+      </c>
+      <c r="I40" t="s">
         <v>440</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>441</v>
       </c>
-      <c r="J40" t="s">
-        <v>442</v>
-      </c>
       <c r="K40" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L40" s="90"/>
       <c r="M40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q40" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q40" s="71" t="s">
+      <c r="S40" t="s">
+        <v>422</v>
+      </c>
+      <c r="T40" t="s">
+        <v>442</v>
+      </c>
+      <c r="U40" t="s">
+        <v>311</v>
+      </c>
+      <c r="V40" t="s">
         <v>412</v>
       </c>
-      <c r="S40" t="s">
+      <c r="W40" t="s">
+        <v>422</v>
+      </c>
+      <c r="X40" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB40" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF40" t="s">
         <v>423</v>
-      </c>
-      <c r="T40" t="s">
-        <v>443</v>
-      </c>
-      <c r="U40" t="s">
-        <v>312</v>
-      </c>
-      <c r="V40" t="s">
-        <v>413</v>
-      </c>
-      <c r="W40" t="s">
-        <v>423</v>
-      </c>
-      <c r="X40" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB40" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>424</v>
       </c>
       <c r="AG40">
         <v>314</v>
@@ -7152,7 +7152,7 @@
         <v>0.77</v>
       </c>
       <c r="DC40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD40">
         <v>0.32</v>
@@ -7160,74 +7160,74 @@
     </row>
     <row r="41" spans="1:108" ht="116">
       <c r="B41" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G41">
         <v>2014</v>
       </c>
       <c r="H41" t="s">
+        <v>439</v>
+      </c>
+      <c r="I41" t="s">
         <v>440</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>441</v>
       </c>
-      <c r="J41" t="s">
-        <v>442</v>
-      </c>
       <c r="K41" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L41" s="90"/>
       <c r="M41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O41" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q41" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q41" s="71" t="s">
+      <c r="S41" t="s">
+        <v>422</v>
+      </c>
+      <c r="T41" t="s">
+        <v>442</v>
+      </c>
+      <c r="U41" t="s">
+        <v>311</v>
+      </c>
+      <c r="V41" t="s">
         <v>412</v>
       </c>
-      <c r="S41" t="s">
+      <c r="W41" t="s">
+        <v>422</v>
+      </c>
+      <c r="X41" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB41" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF41" t="s">
         <v>423</v>
-      </c>
-      <c r="T41" t="s">
-        <v>443</v>
-      </c>
-      <c r="U41" t="s">
-        <v>312</v>
-      </c>
-      <c r="V41" t="s">
-        <v>413</v>
-      </c>
-      <c r="W41" t="s">
-        <v>423</v>
-      </c>
-      <c r="X41" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB41" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>424</v>
       </c>
       <c r="AG41">
         <v>314</v>
@@ -7251,7 +7251,7 @@
         <v>1.39</v>
       </c>
       <c r="DC41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD41">
         <v>0.2</v>
@@ -7259,74 +7259,74 @@
     </row>
     <row r="42" spans="1:108" ht="116">
       <c r="B42" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G42">
         <v>2014</v>
       </c>
       <c r="H42" t="s">
+        <v>439</v>
+      </c>
+      <c r="I42" t="s">
         <v>440</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>441</v>
       </c>
-      <c r="J42" t="s">
-        <v>442</v>
-      </c>
       <c r="K42" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L42" s="90"/>
       <c r="M42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O42" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q42" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q42" s="71" t="s">
+      <c r="S42" t="s">
+        <v>422</v>
+      </c>
+      <c r="T42" t="s">
+        <v>442</v>
+      </c>
+      <c r="U42" t="s">
+        <v>311</v>
+      </c>
+      <c r="V42" t="s">
         <v>412</v>
       </c>
-      <c r="S42" t="s">
+      <c r="W42" t="s">
+        <v>422</v>
+      </c>
+      <c r="X42" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB42" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF42" t="s">
         <v>423</v>
-      </c>
-      <c r="T42" t="s">
-        <v>443</v>
-      </c>
-      <c r="U42" t="s">
-        <v>312</v>
-      </c>
-      <c r="V42" t="s">
-        <v>413</v>
-      </c>
-      <c r="W42" t="s">
-        <v>423</v>
-      </c>
-      <c r="X42" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB42" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>424</v>
       </c>
       <c r="AG42">
         <v>314</v>
@@ -7350,7 +7350,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="DC42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD42">
         <v>0.03</v>
@@ -7358,74 +7358,74 @@
     </row>
     <row r="43" spans="1:108" ht="116">
       <c r="B43" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G43">
         <v>2014</v>
       </c>
       <c r="H43" t="s">
+        <v>439</v>
+      </c>
+      <c r="I43" t="s">
         <v>440</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>441</v>
       </c>
-      <c r="J43" t="s">
-        <v>442</v>
-      </c>
       <c r="K43" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L43" s="90"/>
       <c r="M43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O43" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q43" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q43" s="71" t="s">
+      <c r="S43" t="s">
+        <v>422</v>
+      </c>
+      <c r="T43" t="s">
+        <v>442</v>
+      </c>
+      <c r="U43" t="s">
+        <v>311</v>
+      </c>
+      <c r="V43" t="s">
         <v>412</v>
       </c>
-      <c r="S43" t="s">
-        <v>423</v>
-      </c>
-      <c r="T43" t="s">
-        <v>443</v>
-      </c>
-      <c r="U43" t="s">
-        <v>312</v>
-      </c>
-      <c r="V43" t="s">
-        <v>413</v>
-      </c>
       <c r="W43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AB43" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG43">
         <v>314</v>
@@ -7449,7 +7449,7 @@
         <v>318.7</v>
       </c>
       <c r="DC43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD43">
         <v>0.06</v>
@@ -7457,74 +7457,74 @@
     </row>
     <row r="44" spans="1:108" ht="116">
       <c r="B44" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G44">
         <v>2014</v>
       </c>
       <c r="H44" t="s">
+        <v>439</v>
+      </c>
+      <c r="I44" t="s">
         <v>440</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>441</v>
       </c>
-      <c r="J44" t="s">
-        <v>442</v>
-      </c>
       <c r="K44" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L44" s="90"/>
       <c r="M44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O44" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q44" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q44" s="71" t="s">
+      <c r="S44" t="s">
+        <v>422</v>
+      </c>
+      <c r="T44" t="s">
+        <v>442</v>
+      </c>
+      <c r="U44" t="s">
+        <v>311</v>
+      </c>
+      <c r="V44" t="s">
         <v>412</v>
       </c>
-      <c r="S44" t="s">
+      <c r="W44" t="s">
+        <v>422</v>
+      </c>
+      <c r="X44" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB44" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF44" t="s">
         <v>423</v>
-      </c>
-      <c r="T44" t="s">
-        <v>443</v>
-      </c>
-      <c r="U44" t="s">
-        <v>312</v>
-      </c>
-      <c r="V44" t="s">
-        <v>413</v>
-      </c>
-      <c r="W44" t="s">
-        <v>423</v>
-      </c>
-      <c r="X44" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB44" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>424</v>
       </c>
       <c r="AG44">
         <v>314</v>
@@ -7548,7 +7548,7 @@
         <v>95.9</v>
       </c>
       <c r="DC44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD44">
         <v>0.3</v>
@@ -7556,74 +7556,74 @@
     </row>
     <row r="45" spans="1:108" ht="116">
       <c r="B45" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G45">
         <v>2014</v>
       </c>
       <c r="H45" t="s">
+        <v>439</v>
+      </c>
+      <c r="I45" t="s">
         <v>440</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>441</v>
       </c>
-      <c r="J45" t="s">
-        <v>442</v>
-      </c>
       <c r="K45" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L45" s="90"/>
       <c r="M45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O45" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q45" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q45" s="71" t="s">
+      <c r="S45" t="s">
+        <v>422</v>
+      </c>
+      <c r="T45" t="s">
+        <v>442</v>
+      </c>
+      <c r="U45" t="s">
+        <v>311</v>
+      </c>
+      <c r="V45" t="s">
         <v>412</v>
       </c>
-      <c r="S45" t="s">
-        <v>423</v>
-      </c>
-      <c r="T45" t="s">
-        <v>443</v>
-      </c>
-      <c r="U45" t="s">
-        <v>312</v>
-      </c>
-      <c r="V45" t="s">
-        <v>413</v>
-      </c>
       <c r="W45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB45" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG45">
         <v>314</v>
@@ -7647,7 +7647,7 @@
         <v>284.10000000000002</v>
       </c>
       <c r="DC45" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD45">
         <v>0.8</v>
@@ -7655,74 +7655,74 @@
     </row>
     <row r="46" spans="1:108" ht="116">
       <c r="B46" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G46">
         <v>2014</v>
       </c>
       <c r="H46" t="s">
+        <v>439</v>
+      </c>
+      <c r="I46" t="s">
         <v>440</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>441</v>
       </c>
-      <c r="J46" t="s">
-        <v>442</v>
-      </c>
       <c r="K46" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L46" s="90"/>
       <c r="M46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O46" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q46" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q46" s="71" t="s">
+      <c r="S46" t="s">
+        <v>422</v>
+      </c>
+      <c r="T46" t="s">
+        <v>442</v>
+      </c>
+      <c r="U46" t="s">
+        <v>311</v>
+      </c>
+      <c r="V46" t="s">
         <v>412</v>
       </c>
-      <c r="S46" t="s">
+      <c r="W46" t="s">
+        <v>422</v>
+      </c>
+      <c r="X46" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB46" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF46" t="s">
         <v>423</v>
-      </c>
-      <c r="T46" t="s">
-        <v>443</v>
-      </c>
-      <c r="U46" t="s">
-        <v>312</v>
-      </c>
-      <c r="V46" t="s">
-        <v>413</v>
-      </c>
-      <c r="W46" t="s">
-        <v>423</v>
-      </c>
-      <c r="X46" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB46" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>424</v>
       </c>
       <c r="AG46">
         <v>314</v>
@@ -7746,7 +7746,7 @@
         <v>63.8</v>
       </c>
       <c r="DC46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DD46">
         <v>0.5</v>
@@ -7754,74 +7754,74 @@
     </row>
     <row r="47" spans="1:108" ht="116">
       <c r="B47" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G47">
         <v>2014</v>
       </c>
       <c r="H47" t="s">
+        <v>439</v>
+      </c>
+      <c r="I47" t="s">
         <v>440</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>441</v>
       </c>
-      <c r="J47" t="s">
-        <v>442</v>
-      </c>
       <c r="K47" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L47" s="90"/>
       <c r="M47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O47" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q47" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q47" s="71" t="s">
+      <c r="S47" t="s">
+        <v>427</v>
+      </c>
+      <c r="T47" t="s">
+        <v>442</v>
+      </c>
+      <c r="U47" t="s">
+        <v>289</v>
+      </c>
+      <c r="V47" t="s">
         <v>412</v>
       </c>
-      <c r="S47" t="s">
-        <v>428</v>
-      </c>
-      <c r="T47" t="s">
-        <v>443</v>
-      </c>
-      <c r="U47" t="s">
-        <v>290</v>
-      </c>
-      <c r="V47" t="s">
-        <v>413</v>
-      </c>
       <c r="W47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AA47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB47" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG47">
         <v>314</v>
@@ -7846,82 +7846,82 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="CY47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:108" ht="116">
       <c r="B48" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G48">
         <v>2014</v>
       </c>
       <c r="H48" t="s">
+        <v>439</v>
+      </c>
+      <c r="I48" t="s">
         <v>440</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>441</v>
       </c>
-      <c r="J48" t="s">
-        <v>442</v>
-      </c>
       <c r="K48" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L48" s="90"/>
       <c r="M48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q48" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q48" s="71" t="s">
+      <c r="S48" t="s">
+        <v>427</v>
+      </c>
+      <c r="T48" t="s">
+        <v>442</v>
+      </c>
+      <c r="U48" t="s">
+        <v>289</v>
+      </c>
+      <c r="V48" t="s">
         <v>412</v>
       </c>
-      <c r="S48" t="s">
-        <v>428</v>
-      </c>
-      <c r="T48" t="s">
-        <v>443</v>
-      </c>
-      <c r="U48" t="s">
-        <v>290</v>
-      </c>
-      <c r="V48" t="s">
-        <v>413</v>
-      </c>
       <c r="W48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AB48" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG48">
         <v>314</v>
@@ -7946,82 +7946,82 @@
         <v>0.7</v>
       </c>
       <c r="CY48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:104" ht="116">
       <c r="B49" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G49">
         <v>2014</v>
       </c>
       <c r="H49" t="s">
+        <v>439</v>
+      </c>
+      <c r="I49" t="s">
         <v>440</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>441</v>
       </c>
-      <c r="J49" t="s">
-        <v>442</v>
-      </c>
       <c r="K49" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L49" s="90"/>
       <c r="M49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O49" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q49" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q49" s="71" t="s">
+      <c r="S49" t="s">
+        <v>427</v>
+      </c>
+      <c r="T49" t="s">
+        <v>442</v>
+      </c>
+      <c r="U49" t="s">
+        <v>289</v>
+      </c>
+      <c r="V49" t="s">
         <v>412</v>
       </c>
-      <c r="S49" t="s">
-        <v>428</v>
-      </c>
-      <c r="T49" t="s">
-        <v>443</v>
-      </c>
-      <c r="U49" t="s">
-        <v>290</v>
-      </c>
-      <c r="V49" t="s">
-        <v>413</v>
-      </c>
       <c r="W49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X49" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB49" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG49">
         <v>314</v>
@@ -8046,79 +8046,79 @@
         <v>0.6</v>
       </c>
       <c r="CY49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:104" ht="116">
       <c r="B50" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G50">
         <v>2014</v>
       </c>
       <c r="H50" t="s">
+        <v>439</v>
+      </c>
+      <c r="I50" t="s">
         <v>440</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>441</v>
       </c>
-      <c r="J50" t="s">
-        <v>442</v>
-      </c>
       <c r="K50" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L50" s="90"/>
       <c r="M50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O50" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q50" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q50" s="71" t="s">
+      <c r="T50" t="s">
+        <v>442</v>
+      </c>
+      <c r="V50" t="s">
         <v>412</v>
       </c>
-      <c r="T50" t="s">
-        <v>443</v>
-      </c>
-      <c r="V50" t="s">
-        <v>413</v>
-      </c>
       <c r="W50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y50" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z50" t="s">
         <v>433</v>
       </c>
-      <c r="Z50" t="s">
-        <v>434</v>
-      </c>
       <c r="AA50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB50" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG50">
         <v>314</v>
@@ -8143,79 +8143,79 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="CY50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ50" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:104" ht="116">
       <c r="B51" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G51">
         <v>2014</v>
       </c>
       <c r="H51" t="s">
+        <v>439</v>
+      </c>
+      <c r="I51" t="s">
         <v>440</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>441</v>
       </c>
-      <c r="J51" t="s">
-        <v>442</v>
-      </c>
       <c r="K51" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L51" s="90"/>
       <c r="M51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O51" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q51" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q51" s="71" t="s">
+      <c r="T51" t="s">
+        <v>442</v>
+      </c>
+      <c r="V51" t="s">
         <v>412</v>
       </c>
-      <c r="T51" t="s">
-        <v>443</v>
-      </c>
-      <c r="V51" t="s">
-        <v>413</v>
-      </c>
       <c r="W51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Z51" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB51" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF51" t="s">
         <v>419</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB51" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>420</v>
       </c>
       <c r="AG51">
         <v>314</v>
@@ -8240,79 +8240,79 @@
         <v>0.9</v>
       </c>
       <c r="CY51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:104" ht="116">
       <c r="B52" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G52">
         <v>2014</v>
       </c>
       <c r="H52" t="s">
+        <v>439</v>
+      </c>
+      <c r="I52" t="s">
         <v>440</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>441</v>
       </c>
-      <c r="J52" t="s">
-        <v>442</v>
-      </c>
       <c r="K52" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L52" s="90"/>
       <c r="M52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O52" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q52" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q52" s="71" t="s">
+      <c r="T52" t="s">
+        <v>442</v>
+      </c>
+      <c r="V52" t="s">
         <v>412</v>
       </c>
-      <c r="T52" t="s">
-        <v>443</v>
-      </c>
-      <c r="V52" t="s">
-        <v>413</v>
-      </c>
       <c r="W52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Z52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB52" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG52">
         <v>314</v>
@@ -8337,79 +8337,79 @@
         <v>0.9</v>
       </c>
       <c r="CY52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ52" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:104" ht="116">
       <c r="B53" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G53">
         <v>2014</v>
       </c>
       <c r="H53" t="s">
+        <v>439</v>
+      </c>
+      <c r="I53" t="s">
         <v>440</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>441</v>
       </c>
-      <c r="J53" t="s">
-        <v>442</v>
-      </c>
       <c r="K53" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L53" s="90"/>
       <c r="M53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O53" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q53" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q53" s="71" t="s">
+      <c r="T53" t="s">
+        <v>442</v>
+      </c>
+      <c r="V53" t="s">
         <v>412</v>
       </c>
-      <c r="T53" t="s">
-        <v>443</v>
-      </c>
-      <c r="V53" t="s">
-        <v>413</v>
-      </c>
       <c r="W53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y53" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z53" t="s">
         <v>435</v>
       </c>
-      <c r="Z53" t="s">
-        <v>436</v>
-      </c>
       <c r="AA53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB53" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG53">
         <v>314</v>
@@ -8434,79 +8434,79 @@
         <v>0.5</v>
       </c>
       <c r="CY53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:104" ht="116">
       <c r="B54" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G54">
         <v>2014</v>
       </c>
       <c r="H54" t="s">
+        <v>439</v>
+      </c>
+      <c r="I54" t="s">
         <v>440</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>441</v>
       </c>
-      <c r="J54" t="s">
-        <v>442</v>
-      </c>
       <c r="K54" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L54" s="90"/>
       <c r="M54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O54" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q54" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q54" s="71" t="s">
+      <c r="T54" t="s">
+        <v>442</v>
+      </c>
+      <c r="V54" t="s">
         <v>412</v>
       </c>
-      <c r="T54" t="s">
-        <v>443</v>
-      </c>
-      <c r="V54" t="s">
-        <v>413</v>
-      </c>
       <c r="W54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Z54" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB54" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF54" t="s">
         <v>419</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB54" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>420</v>
       </c>
       <c r="AG54">
         <v>314</v>
@@ -8531,79 +8531,79 @@
         <v>0.5</v>
       </c>
       <c r="CY54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:104" ht="116">
       <c r="B55" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G55">
         <v>2014</v>
       </c>
       <c r="H55" t="s">
+        <v>439</v>
+      </c>
+      <c r="I55" t="s">
         <v>440</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>441</v>
       </c>
-      <c r="J55" t="s">
-        <v>442</v>
-      </c>
       <c r="K55" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L55" s="90"/>
       <c r="M55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O55" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q55" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="Q55" s="71" t="s">
+      <c r="T55" t="s">
+        <v>442</v>
+      </c>
+      <c r="V55" t="s">
         <v>412</v>
       </c>
-      <c r="T55" t="s">
-        <v>443</v>
-      </c>
-      <c r="V55" t="s">
-        <v>413</v>
-      </c>
       <c r="W55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Z55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB55" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG55">
         <v>314</v>
@@ -8628,88 +8628,88 @@
         <v>0.3</v>
       </c>
       <c r="CY55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CZ55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:104" ht="130.5">
       <c r="A56" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s">
+        <v>380</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
         <v>381</v>
-      </c>
-      <c r="E56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" t="s">
-        <v>382</v>
       </c>
       <c r="G56">
         <v>2015</v>
       </c>
       <c r="H56" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K56" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L56" s="90"/>
       <c r="M56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O56" t="s">
+        <v>385</v>
+      </c>
+      <c r="P56" t="s">
+        <v>389</v>
+      </c>
+      <c r="R56" t="s">
+        <v>391</v>
+      </c>
+      <c r="S56" t="s">
         <v>386</v>
       </c>
-      <c r="P56" t="s">
+      <c r="T56" t="s">
+        <v>287</v>
+      </c>
+      <c r="U56" t="s">
+        <v>311</v>
+      </c>
+      <c r="V56" t="s">
+        <v>387</v>
+      </c>
+      <c r="W56" t="s">
         <v>390</v>
       </c>
-      <c r="R56" t="s">
+      <c r="X56" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA56" t="s">
         <v>392</v>
       </c>
-      <c r="S56" t="s">
-        <v>387</v>
-      </c>
-      <c r="T56" t="s">
-        <v>288</v>
-      </c>
-      <c r="U56" t="s">
-        <v>312</v>
-      </c>
-      <c r="V56" t="s">
-        <v>388</v>
-      </c>
-      <c r="W56" t="s">
-        <v>391</v>
-      </c>
-      <c r="X56" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z56" t="s">
+      <c r="AB56" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD56" t="s">
         <v>394</v>
       </c>
-      <c r="AA56" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>395</v>
-      </c>
       <c r="AF56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG56">
         <v>760</v>
@@ -8733,85 +8733,85 @@
         <v>0.4</v>
       </c>
       <c r="CY56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CZ56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:104" ht="130.5">
       <c r="B57" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" t="s">
+        <v>380</v>
+      </c>
+      <c r="E57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" t="s">
         <v>381</v>
-      </c>
-      <c r="E57" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" t="s">
-        <v>382</v>
       </c>
       <c r="G57">
         <v>2015</v>
       </c>
       <c r="H57" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K57" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L57" s="90"/>
       <c r="M57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O57" t="s">
+        <v>385</v>
+      </c>
+      <c r="P57" t="s">
+        <v>389</v>
+      </c>
+      <c r="R57" t="s">
+        <v>391</v>
+      </c>
+      <c r="S57" t="s">
         <v>386</v>
       </c>
-      <c r="P57" t="s">
+      <c r="T57" t="s">
+        <v>287</v>
+      </c>
+      <c r="U57" t="s">
+        <v>311</v>
+      </c>
+      <c r="V57" t="s">
+        <v>387</v>
+      </c>
+      <c r="W57" t="s">
         <v>390</v>
       </c>
-      <c r="R57" t="s">
-        <v>392</v>
-      </c>
-      <c r="S57" t="s">
-        <v>387</v>
-      </c>
-      <c r="T57" t="s">
-        <v>288</v>
-      </c>
-      <c r="U57" t="s">
-        <v>312</v>
-      </c>
-      <c r="V57" t="s">
-        <v>388</v>
-      </c>
-      <c r="W57" t="s">
-        <v>391</v>
-      </c>
       <c r="X57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG57">
         <v>760</v>
@@ -8832,88 +8832,88 @@
         <v>2.88</v>
       </c>
       <c r="CX57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="CY57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CZ57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:104" ht="130.5">
       <c r="B58" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" t="s">
+        <v>380</v>
+      </c>
+      <c r="E58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" t="s">
         <v>381</v>
-      </c>
-      <c r="E58" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" t="s">
-        <v>382</v>
       </c>
       <c r="G58">
         <v>2015</v>
       </c>
       <c r="H58" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K58" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L58" s="90"/>
       <c r="M58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O58" t="s">
+        <v>385</v>
+      </c>
+      <c r="P58" t="s">
+        <v>389</v>
+      </c>
+      <c r="R58" t="s">
+        <v>391</v>
+      </c>
+      <c r="S58" t="s">
         <v>386</v>
       </c>
-      <c r="P58" t="s">
+      <c r="T58" t="s">
+        <v>287</v>
+      </c>
+      <c r="U58" t="s">
+        <v>311</v>
+      </c>
+      <c r="V58" t="s">
+        <v>387</v>
+      </c>
+      <c r="W58" t="s">
         <v>390</v>
       </c>
-      <c r="R58" t="s">
-        <v>392</v>
-      </c>
-      <c r="S58" t="s">
-        <v>387</v>
-      </c>
-      <c r="T58" t="s">
-        <v>288</v>
-      </c>
-      <c r="U58" t="s">
-        <v>312</v>
-      </c>
-      <c r="V58" t="s">
-        <v>388</v>
-      </c>
-      <c r="W58" t="s">
-        <v>391</v>
-      </c>
       <c r="X58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG58">
         <v>760</v>
@@ -8937,85 +8937,85 @@
         <v>0.9</v>
       </c>
       <c r="CY58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CZ58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:104" ht="130.5">
       <c r="B59" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" t="s">
         <v>381</v>
-      </c>
-      <c r="E59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" t="s">
-        <v>382</v>
       </c>
       <c r="G59">
         <v>2015</v>
       </c>
       <c r="H59" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K59" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L59" s="90"/>
       <c r="M59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O59" t="s">
+        <v>385</v>
+      </c>
+      <c r="P59" t="s">
+        <v>389</v>
+      </c>
+      <c r="R59" t="s">
+        <v>391</v>
+      </c>
+      <c r="S59" t="s">
         <v>386</v>
       </c>
-      <c r="P59" t="s">
+      <c r="T59" t="s">
+        <v>287</v>
+      </c>
+      <c r="U59" t="s">
+        <v>311</v>
+      </c>
+      <c r="V59" t="s">
+        <v>387</v>
+      </c>
+      <c r="W59" t="s">
         <v>390</v>
       </c>
-      <c r="R59" t="s">
-        <v>392</v>
-      </c>
-      <c r="S59" t="s">
-        <v>387</v>
-      </c>
-      <c r="T59" t="s">
-        <v>288</v>
-      </c>
-      <c r="U59" t="s">
-        <v>312</v>
-      </c>
-      <c r="V59" t="s">
-        <v>388</v>
-      </c>
-      <c r="W59" t="s">
-        <v>391</v>
-      </c>
       <c r="X59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z59" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA59" t="s">
         <v>399</v>
       </c>
-      <c r="AA59" t="s">
-        <v>400</v>
-      </c>
       <c r="AB59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG59">
         <v>760</v>
@@ -9039,88 +9039,88 @@
         <v>0.02</v>
       </c>
       <c r="CY59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CZ59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:104" ht="130.5">
       <c r="A60" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
+        <v>380</v>
+      </c>
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
         <v>381</v>
-      </c>
-      <c r="E60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" t="s">
-        <v>382</v>
       </c>
       <c r="G60">
         <v>2015</v>
       </c>
       <c r="H60" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K60" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L60" s="90"/>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O60" t="s">
+        <v>385</v>
+      </c>
+      <c r="P60" t="s">
+        <v>389</v>
+      </c>
+      <c r="R60" t="s">
+        <v>391</v>
+      </c>
+      <c r="S60" t="s">
         <v>386</v>
       </c>
-      <c r="P60" t="s">
-        <v>390</v>
-      </c>
-      <c r="R60" t="s">
-        <v>392</v>
-      </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
+        <v>287</v>
+      </c>
+      <c r="U60" t="s">
+        <v>401</v>
+      </c>
+      <c r="V60" t="s">
         <v>387</v>
       </c>
-      <c r="T60" t="s">
-        <v>288</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="W60" t="s">
+        <v>388</v>
+      </c>
+      <c r="X60" t="s">
         <v>402</v>
       </c>
-      <c r="V60" t="s">
-        <v>388</v>
-      </c>
-      <c r="W60" t="s">
-        <v>389</v>
-      </c>
-      <c r="X60" t="s">
-        <v>403</v>
-      </c>
       <c r="Z60" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD60" t="s">
         <v>394</v>
       </c>
-      <c r="AA60" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>395</v>
-      </c>
       <c r="AF60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG60">
         <v>760</v>
@@ -9144,85 +9144,85 @@
         <v>2E-3</v>
       </c>
       <c r="CY60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CZ60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:104" ht="130.5">
       <c r="B61" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
+        <v>380</v>
+      </c>
+      <c r="E61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
         <v>381</v>
-      </c>
-      <c r="E61" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" t="s">
-        <v>382</v>
       </c>
       <c r="G61">
         <v>2015</v>
       </c>
       <c r="H61" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K61" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L61" s="90"/>
       <c r="M61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O61" t="s">
+        <v>385</v>
+      </c>
+      <c r="P61" t="s">
+        <v>389</v>
+      </c>
+      <c r="R61" t="s">
+        <v>391</v>
+      </c>
+      <c r="S61" t="s">
         <v>386</v>
       </c>
-      <c r="P61" t="s">
-        <v>390</v>
-      </c>
-      <c r="R61" t="s">
-        <v>392</v>
-      </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
+        <v>287</v>
+      </c>
+      <c r="U61" t="s">
+        <v>401</v>
+      </c>
+      <c r="V61" t="s">
         <v>387</v>
       </c>
-      <c r="T61" t="s">
-        <v>288</v>
-      </c>
-      <c r="U61" t="s">
+      <c r="W61" t="s">
+        <v>388</v>
+      </c>
+      <c r="X61" t="s">
         <v>402</v>
       </c>
-      <c r="V61" t="s">
-        <v>388</v>
-      </c>
-      <c r="W61" t="s">
-        <v>389</v>
-      </c>
-      <c r="X61" t="s">
-        <v>403</v>
-      </c>
       <c r="Z61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG61">
         <v>760</v>
@@ -9246,85 +9246,85 @@
         <v>2E-3</v>
       </c>
       <c r="CY61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CZ61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:104" ht="130.5">
       <c r="B62" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D62" t="s">
+        <v>380</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" t="s">
         <v>381</v>
-      </c>
-      <c r="E62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" t="s">
-        <v>382</v>
       </c>
       <c r="G62">
         <v>2015</v>
       </c>
       <c r="H62" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K62" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L62" s="90"/>
       <c r="M62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O62" t="s">
+        <v>385</v>
+      </c>
+      <c r="P62" t="s">
+        <v>389</v>
+      </c>
+      <c r="R62" t="s">
+        <v>391</v>
+      </c>
+      <c r="S62" t="s">
         <v>386</v>
       </c>
-      <c r="P62" t="s">
-        <v>390</v>
-      </c>
-      <c r="R62" t="s">
-        <v>392</v>
-      </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
+        <v>287</v>
+      </c>
+      <c r="U62" t="s">
+        <v>401</v>
+      </c>
+      <c r="V62" t="s">
         <v>387</v>
       </c>
-      <c r="T62" t="s">
-        <v>288</v>
-      </c>
-      <c r="U62" t="s">
+      <c r="W62" t="s">
+        <v>388</v>
+      </c>
+      <c r="X62" t="s">
         <v>402</v>
       </c>
-      <c r="V62" t="s">
-        <v>388</v>
-      </c>
-      <c r="W62" t="s">
-        <v>389</v>
-      </c>
-      <c r="X62" t="s">
-        <v>403</v>
-      </c>
       <c r="Z62" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA62" t="s">
         <v>399</v>
       </c>
-      <c r="AA62" t="s">
-        <v>400</v>
-      </c>
       <c r="AB62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG62">
         <v>760</v>
@@ -9348,10 +9348,10 @@
         <v>0.01</v>
       </c>
       <c r="CY62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CZ62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -9424,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>2</v>
@@ -9454,7 +9454,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>13</v>
@@ -9466,16 +9466,16 @@
         <v>15</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="53" t="s">
         <v>114</v>
-      </c>
-      <c r="T1" s="53" t="s">
-        <v>115</v>
       </c>
       <c r="U1" s="9" t="s">
         <v>17</v>
@@ -9526,16 +9526,16 @@
         <v>33</v>
       </c>
       <c r="AK1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AN1" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="AO1" s="24" t="s">
         <v>38</v>
@@ -9568,19 +9568,19 @@
         <v>47</v>
       </c>
       <c r="AY1" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="AZ1" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="BA1" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="AZ1" s="58" t="s">
+      <c r="BB1" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="BA1" s="58" t="s">
+      <c r="BC1" s="58" t="s">
         <v>503</v>
-      </c>
-      <c r="BB1" s="58" t="s">
-        <v>504</v>
-      </c>
-      <c r="BC1" s="58" t="s">
-        <v>505</v>
       </c>
       <c r="BD1" s="30" t="s">
         <v>48</v>
@@ -9622,25 +9622,25 @@
         <v>60</v>
       </c>
       <c r="BQ1" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="BR1" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="BS1" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="BR1" s="30" t="s">
+      <c r="BT1" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="BS1" s="30" t="s">
+      <c r="BU1" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="BT1" s="30" t="s">
+      <c r="BV1" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="BU1" s="30" t="s">
+      <c r="BW1" s="33" t="s">
         <v>498</v>
-      </c>
-      <c r="BV1" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="BW1" s="33" t="s">
-        <v>500</v>
       </c>
       <c r="BX1" s="34" t="s">
         <v>61</v>
@@ -9735,43 +9735,43 @@
     </row>
     <row r="2" spans="1:105">
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2">
         <v>1999</v>
       </c>
       <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
         <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
       </c>
       <c r="T2">
         <v>53</v>
       </c>
       <c r="V2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" t="s">
         <v>134</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>135</v>
       </c>
       <c r="CF2">
         <v>1.04</v>
       </c>
       <c r="CG2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH2">
         <v>0.56000000000000005</v>
@@ -9782,40 +9782,40 @@
     </row>
     <row r="3" spans="1:105">
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3">
         <v>2012</v>
       </c>
       <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" t="s">
         <v>120</v>
-      </c>
-      <c r="I3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" t="s">
-        <v>121</v>
       </c>
       <c r="T3">
         <v>48</v>
       </c>
       <c r="V3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AE3" t="s">
         <v>139</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>140</v>
       </c>
       <c r="BE3">
         <v>1.08</v>
@@ -9827,13 +9827,13 @@
         <v>3.13</v>
       </c>
       <c r="BI3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF3">
         <v>0.04</v>
       </c>
       <c r="CG3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH3">
         <v>-0.55000000000000004</v>
@@ -9844,52 +9844,52 @@
     </row>
     <row r="4" spans="1:105">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>2009</v>
       </c>
       <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" t="s">
         <v>120</v>
       </c>
-      <c r="I4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" t="s">
-        <v>121</v>
-      </c>
       <c r="K4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" t="s">
         <v>146</v>
-      </c>
-      <c r="L4" t="s">
-        <v>147</v>
       </c>
       <c r="T4">
         <v>65</v>
       </c>
       <c r="V4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" t="s">
         <v>148</v>
       </c>
-      <c r="Y4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AE4" t="s">
         <v>149</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>150</v>
       </c>
       <c r="CF4">
         <v>0.57999999999999996</v>
       </c>
       <c r="CG4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH4">
         <v>0.06</v>
@@ -9900,49 +9900,49 @@
     </row>
     <row r="5" spans="1:105">
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>2005</v>
       </c>
       <c r="H5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J5" t="s">
         <v>153</v>
       </c>
-      <c r="I5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" t="s">
         <v>154</v>
-      </c>
-      <c r="K5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" t="s">
-        <v>155</v>
       </c>
       <c r="T5">
         <v>119</v>
       </c>
       <c r="V5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y5" t="s">
         <v>156</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AC5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE5" t="s">
         <v>157</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>158</v>
       </c>
       <c r="BE5">
         <v>2.8</v>
@@ -9957,48 +9957,48 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BI5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:105">
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6">
         <v>2005</v>
       </c>
       <c r="H6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" t="s">
         <v>153</v>
       </c>
-      <c r="I6" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" t="s">
-        <v>154</v>
-      </c>
       <c r="K6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6">
         <v>119</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BE6">
         <v>1.1000000000000001</v>
@@ -10013,48 +10013,48 @@
         <v>0.81</v>
       </c>
       <c r="BI6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:105">
       <c r="B7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7">
         <v>2005</v>
       </c>
       <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J7" t="s">
         <v>153</v>
       </c>
-      <c r="I7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" t="s">
-        <v>154</v>
-      </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T7">
         <v>119</v>
       </c>
       <c r="V7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BE7">
         <v>2.4</v>
@@ -10069,36 +10069,36 @@
         <v>5.5E-2</v>
       </c>
       <c r="BI7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:105">
       <c r="B8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8">
         <v>1994</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T8">
         <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BE8">
         <v>2.27</v>
@@ -10110,13 +10110,13 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="BI8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF8">
         <v>0.45</v>
       </c>
       <c r="CG8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CH8">
         <v>7.0000000000000007E-2</v>
@@ -10127,43 +10127,43 @@
     </row>
     <row r="9" spans="1:105">
       <c r="B9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9">
         <v>1994</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T9">
         <v>93</v>
       </c>
       <c r="V9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z9" t="s">
         <v>138</v>
       </c>
-      <c r="Y9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="AE9" t="s">
         <v>139</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>140</v>
       </c>
       <c r="CF9">
         <v>0.45</v>
       </c>
       <c r="CG9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH9">
         <v>7.0000000000000007E-2</v>
@@ -10174,46 +10174,46 @@
     </row>
     <row r="10" spans="1:105">
       <c r="B10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10">
         <v>2004</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T10">
         <v>88</v>
       </c>
       <c r="V10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z10" t="s">
         <v>162</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>163</v>
       </c>
       <c r="CF10">
         <v>-0.08</v>
       </c>
       <c r="CG10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH10">
         <v>-0.51</v>
@@ -10224,46 +10224,46 @@
     </row>
     <row r="11" spans="1:105">
       <c r="B11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11">
         <v>1994</v>
       </c>
       <c r="H11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" t="s">
         <v>172</v>
       </c>
-      <c r="I11" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" t="s">
-        <v>173</v>
-      </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T11">
         <v>75</v>
       </c>
       <c r="V11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y11" t="s">
         <v>122</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE11" t="s">
         <v>174</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>175</v>
       </c>
       <c r="BE11">
         <v>4.5</v>
@@ -10278,51 +10278,51 @@
         <v>0.01</v>
       </c>
       <c r="BI11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:105">
       <c r="B12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G12">
         <v>1994</v>
       </c>
       <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" t="s">
         <v>172</v>
       </c>
-      <c r="I12" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" t="s">
-        <v>173</v>
-      </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T12">
         <v>75</v>
       </c>
       <c r="V12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE12" t="s">
         <v>174</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>175</v>
       </c>
       <c r="BE12">
         <v>1.6</v>
@@ -10337,51 +10337,51 @@
         <v>0.51</v>
       </c>
       <c r="BI12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:105">
       <c r="B13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="65">
         <v>1986</v>
       </c>
       <c r="H13" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="65" t="s">
         <v>178</v>
-      </c>
-      <c r="J13" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="65" t="s">
-        <v>179</v>
       </c>
       <c r="T13" s="65">
         <v>86</v>
       </c>
       <c r="U13" s="65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V13" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y13" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z13" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA13" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CF13" s="65">
         <v>0.8</v>
       </c>
       <c r="CG13" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH13" s="65">
         <v>0.31</v>
@@ -10392,49 +10392,49 @@
     </row>
     <row r="14" spans="1:105">
       <c r="B14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14">
         <v>2001</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T14">
         <v>404</v>
       </c>
       <c r="V14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z14" t="s">
         <v>184</v>
       </c>
-      <c r="Y14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE14" t="s">
         <v>185</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>186</v>
       </c>
       <c r="CF14">
         <v>0.37</v>
       </c>
       <c r="CG14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH14">
         <v>0.04</v>
@@ -10445,43 +10445,43 @@
     </row>
     <row r="15" spans="1:105">
       <c r="B15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15">
         <v>2013</v>
       </c>
       <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" t="s">
         <v>120</v>
-      </c>
-      <c r="I15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J15" t="s">
-        <v>121</v>
       </c>
       <c r="T15">
         <v>1646</v>
       </c>
       <c r="V15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z15" t="s">
         <v>188</v>
       </c>
-      <c r="Y15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>189</v>
-      </c>
       <c r="AE15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BE15">
         <v>1.56</v>
@@ -10496,7 +10496,7 @@
         <v>0.25</v>
       </c>
       <c r="CG15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH15">
         <v>0.13</v>
@@ -10507,49 +10507,49 @@
     </row>
     <row r="16" spans="1:105">
       <c r="B16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16">
         <v>2014</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T16">
         <v>11618</v>
       </c>
       <c r="V16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z16" t="s">
         <v>191</v>
       </c>
-      <c r="Y16" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="AE16" t="s">
         <v>192</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>193</v>
       </c>
       <c r="CF16">
         <v>0.92</v>
       </c>
       <c r="CG16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH16">
         <v>0.89</v>
@@ -10560,43 +10560,43 @@
     </row>
     <row r="17" spans="2:87">
       <c r="B17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17">
         <v>2003</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T17">
         <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X17" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z17" t="s">
         <v>196</v>
       </c>
-      <c r="Y17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>197</v>
-      </c>
       <c r="AE17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BE17">
         <v>3.1</v>
@@ -10611,7 +10611,7 @@
         <v>0.62</v>
       </c>
       <c r="CG17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH17">
         <v>0.01</v>
@@ -10622,37 +10622,37 @@
     </row>
     <row r="18" spans="2:87">
       <c r="B18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G18">
         <v>2005</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T18">
         <v>112</v>
       </c>
       <c r="V18" t="s">
+        <v>199</v>
+      </c>
+      <c r="X18" t="s">
         <v>200</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>201</v>
       </c>
-      <c r="Y18" t="s">
-        <v>202</v>
-      </c>
       <c r="AA18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BO18">
         <v>3.2000000000000001E-2</v>
@@ -10661,42 +10661,42 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="BW18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:87">
       <c r="B19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19">
         <v>2006</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T19">
         <v>126</v>
       </c>
       <c r="V19" t="s">
+        <v>205</v>
+      </c>
+      <c r="X19" t="s">
         <v>206</v>
       </c>
-      <c r="X19" t="s">
-        <v>207</v>
-      </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE19">
         <v>5.0999999999999996</v>
@@ -10711,19 +10711,19 @@
         <v>2E-3</v>
       </c>
       <c r="BI19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BK19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CF19">
         <v>0.87</v>
       </c>
       <c r="CG19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CH19">
         <v>0.41</v>
@@ -10734,37 +10734,37 @@
     </row>
     <row r="20" spans="2:87">
       <c r="B20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G20">
         <v>2006</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T20">
         <v>88</v>
       </c>
       <c r="V20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z20" t="s">
         <v>138</v>
       </c>
-      <c r="Y20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>139</v>
-      </c>
       <c r="AA20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BE20">
         <v>4.87</v>
@@ -10779,7 +10779,7 @@
         <v>0.87</v>
       </c>
       <c r="CG20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH20">
         <v>0.41</v>
@@ -10790,43 +10790,43 @@
     </row>
     <row r="21" spans="2:87">
       <c r="B21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21">
         <v>2006</v>
       </c>
       <c r="H21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" t="s">
         <v>212</v>
       </c>
-      <c r="I21" t="s">
-        <v>230</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>213</v>
-      </c>
-      <c r="K21" t="s">
-        <v>214</v>
       </c>
       <c r="T21">
         <v>126</v>
       </c>
       <c r="V21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE21" t="s">
         <v>215</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>216</v>
       </c>
       <c r="BE21">
         <v>5.8</v>
@@ -10838,10 +10838,10 @@
         <v>15</v>
       </c>
       <c r="BH21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BI21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -10872,13 +10872,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="102"/>
       <c r="E1" s="102"/>
       <c r="F1" s="102"/>
       <c r="G1" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H1" s="102" t="s">
         <v>21</v>
@@ -10888,112 +10888,112 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
         <v>220</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>221</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>222</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>223</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>224</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>225</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>226</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="48" t="s">
         <v>227</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
